--- a/Feature-Analysis/Resize Feature/s_29_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_29_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.51702546293</v>
+        <v>738157.51702546293</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.51741898153</v>
+        <v>738157.51741898153</v>
       </c>
       <c r="C3" s="0">
         <v>34.000006690621376</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.51807870367</v>
+        <v>738157.51807870367</v>
       </c>
       <c r="C4" s="0">
         <v>90.999999269843102</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.5184375</v>
+        <v>738157.5184375</v>
       </c>
       <c r="C5" s="0">
         <v>122.00000211596489</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.51875000005</v>
+        <v>738157.51875000005</v>
       </c>
       <c r="C6" s="0">
         <v>149.00000654160976</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.5191319444</v>
+        <v>738157.5191319444</v>
       </c>
       <c r="C7" s="0">
         <v>181.9999985396862</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.51943287032</v>
+        <v>738157.51943287032</v>
       </c>
       <c r="C8" s="0">
         <v>207.99999833106995</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.51980324078</v>
+        <v>738157.51980324078</v>
       </c>
       <c r="C9" s="0">
         <v>240.00000581145287</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.52061342588</v>
+        <v>738157.52061342588</v>
       </c>
       <c r="C10" s="0">
         <v>309.99999828636646</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.52061342588</v>
+        <v>738157.52061342588</v>
       </c>
       <c r="C11" s="0">
         <v>309.99999828636646</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.52078703698</v>
+        <v>738157.52078703698</v>
       </c>
       <c r="C12" s="0">
         <v>324.99999739229679</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.52116898145</v>
+        <v>738157.52116898145</v>
       </c>
       <c r="C13" s="0">
         <v>357.99999944865704</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.52151620365</v>
+        <v>738157.52151620365</v>
       </c>
       <c r="C14" s="0">
         <v>387.99999766051769</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.52187499998</v>
+        <v>738157.52187499998</v>
       </c>
       <c r="C15" s="0">
         <v>419.00000050663948</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.52219907404</v>
+        <v>738157.52219907404</v>
       </c>
       <c r="C16" s="0">
         <v>446.99999950826168</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.5225694445</v>
+        <v>738157.5225694445</v>
       </c>
       <c r="C17" s="0">
         <v>479.0000069886446</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.52289351856</v>
+        <v>738157.52289351856</v>
       </c>
       <c r="C18" s="0">
         <v>507.0000059902668</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.52325231477</v>
+        <v>738157.52325231477</v>
       </c>
       <c r="C19" s="0">
         <v>537.99999877810478</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.5236111111</v>
+        <v>738157.5236111111</v>
       </c>
       <c r="C20" s="0">
         <v>569.00000162422657</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.52424768521</v>
+        <v>738157.52424768521</v>
       </c>
       <c r="C21" s="0">
         <v>624.00000505149364</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.52468749997</v>
+        <v>738157.52468749997</v>
       </c>
       <c r="C22" s="0">
         <v>662.00000010430813</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.52500000002</v>
+        <v>738157.52500000002</v>
       </c>
       <c r="C23" s="0">
         <v>689.000004529953</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.5253356481</v>
+        <v>738157.5253356481</v>
       </c>
       <c r="C24" s="0">
         <v>717.99999810755253</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.52601851849</v>
+        <v>738157.52601851849</v>
       </c>
       <c r="C25" s="0">
         <v>776.99999995529652</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.52601851849</v>
+        <v>738157.52601851849</v>
       </c>
       <c r="C26" s="0">
         <v>776.99999995529652</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.52636574069</v>
+        <v>738157.52636574069</v>
       </c>
       <c r="C27" s="0">
         <v>806.99999816715717</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.52673611115</v>
+        <v>738157.52673611115</v>
       </c>
       <c r="C28" s="0">
         <v>839.00000564754009</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.52702546294</v>
+        <v>738157.52702546294</v>
       </c>
       <c r="C29" s="0">
         <v>864.0000008046627</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.52743055555</v>
+        <v>738157.52743055555</v>
       </c>
       <c r="C30" s="0">
         <v>899.00000207126141</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.52777777775</v>
+        <v>738157.52777777775</v>
       </c>
       <c r="C31" s="0">
         <v>929.00000028312206</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.52812499995</v>
+        <v>738157.52812499995</v>
       </c>
       <c r="C32" s="0">
         <v>958.99999849498272</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.52846064814</v>
+        <v>738157.52846064814</v>
       </c>
       <c r="C33" s="0">
         <v>988.00000213086605</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.52880787035</v>
+        <v>738157.52880787035</v>
       </c>
       <c r="C34" s="0">
         <v>1018.0000003427267</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.52916666667</v>
+        <v>738157.52916666667</v>
       </c>
       <c r="C35" s="0">
         <v>1049.0000031888485</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.529525463</v>
+        <v>738157.529525463</v>
       </c>
       <c r="C36" s="0">
         <v>1080.0000060349703</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.52984953707</v>
+        <v>738157.52984953707</v>
       </c>
       <c r="C37" s="0">
         <v>1108.0000050365925</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.53019675927</v>
+        <v>738157.53019675927</v>
       </c>
       <c r="C38" s="0">
         <v>1138.0000032484531</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.53054398147</v>
+        <v>738157.53054398147</v>
       </c>
       <c r="C39" s="0">
         <v>1168.0000014603138</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.5309027778</v>
+        <v>738157.5309027778</v>
       </c>
       <c r="C40" s="0">
         <v>1199.0000043064356</v>
